--- a/econometrics/SEM2/balli/data/bezrab.xlsx
+++ b/econometrics/SEM2/balli/data/bezrab.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 TRUD\1 ДОКЛАДЫ БЮЛ ЭКСПРЕСС\3 март сайт Примстата\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsedoff\Documents\VSCODE\ITiABD-PM22-7-Nikolay-Sedov\econometrics\SEM2\balli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6318E749-8829-45CF-9AB4-DC88ED313BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF93F2-C91B-402A-A2CE-F2F500052F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$A:$L,Лист1!$2:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$A:$L,'1'!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -447,7 +447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,20 +763,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="18" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="18"/>
+    <col min="1" max="1" width="30.26953125" style="18" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" style="18"/>
     <col min="10" max="10" width="10" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="18"/>
+    <col min="11" max="16384" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
         <v>41</v>
@@ -804,7 +804,7 @@
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
     </row>
-    <row r="3" spans="1:24" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -827,7 +827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="25">
         <v>2001</v>
@@ -899,7 +899,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>6155</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>36</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>32</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="19" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>17</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>18</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>22</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>23</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>25</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>26</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>27</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>28</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>29</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>30</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>38</v>
       </c>
@@ -3512,14 +3512,14 @@
       <c r="R42" s="30"/>
       <c r="S42" s="30"/>
     </row>
-    <row r="43" spans="1:24" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
     </row>
-    <row r="44" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
         <v>40</v>
       </c>
@@ -3560,7 +3560,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3572,7 +3572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
